--- a/p4_01_beau_florian_rapport_analyse.xlsx
+++ b/p4_01_beau_florian_rapport_analyse.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="94">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -125,13 +125,102 @@
     <t xml:space="preserve">https://audreytips.com/optimiser-site-web/</t>
   </si>
   <si>
-    <t xml:space="preserve">Les dimensions et le format des images ne vont pas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attention au poids des images, avoir des images plus larges que leur conteneur demande plus de temps de chargement et peut donc pénaliser le visiteur si le chargement est trop long et lui offrir une mauvaise expérience d’utilisateur. Vous avez deux images au format BMP qui est un format déconseillé, je vous recommande le format JPEG.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il faut compresser certaines images trop grandes et mettre les images qui sont au format BMP au format JPEG ou WebP.</t>
+    <t xml:space="preserve">Les images ne conviennent pas, j’ai identifié 3 choses à améliorer.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF2A6099"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1) Dimensions et poids :          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">                                                  Avoir des images plus larges que leur conteneur demande plus de temps de chargement et peut donc pénaliser le visiteur si le chargement est trop long et lui offrir une mauvaise expérience d’utilisateur.                                                                                                                                                                                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF2A6099"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2) Format :    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">                                                                            Vous avez deux images au format BMP qui est un format déconseillé, je vous recommande le format JPEG.                                                                                                                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF2A6099"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3) Texte sous forme d’image :          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">                                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Il ne faut jamais indiquer de texte sous forme d’image ça car les moteurs de recherche ne savent pas lire les images. Du coup, les mots clés ne pourrons pas être lu et le référencement sera impacté. De plus, indiquer du texte à la place d’une image, sera moins long au chargement de la page et du coup aura un impact positif sur le référencement.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1) Il faut compresser certaines images trop grandes                                                                                                                2) Mettre les images qui sont au format BMP au format JPEG ou WebP.                                                                                                                                                                                 3) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Mettre le texte dans un paragraphe plutôt que sur une image.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">https://www.seonity.com/format-image-webp-seo/</t>
@@ -348,16 +437,16 @@
     <t xml:space="preserve">https://www.w3.org/Translations/WCAG20-fr/#glossary</t>
   </si>
   <si>
-    <t xml:space="preserve">Du texte est indiqué sous forme d’image.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il ne faut jamais faire ça car les moteurs de recherche ne savent pas lire les images. Du coup, les mots clés ne pourrons pas être lu et le référencement sera impacté. De plus, indiquer du texte à la place d’une image, sera moins long au chargement de la page et du coup aura un impact positif sur le référencement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mettre le texte dans un paragraphe plutôt que sur une image.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#text_equivalents</t>
+    <t xml:space="preserve">Il y a de nombreuses erreurs de contraste sur la page index et sur la page 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un contraste de texte adéquat est nécessaire pour tous les utilisateurs, en particulier les utilisateurs malvoyants. Pour trouver les erreurs, vous pouvez utiliser l’outil en ligne « wave.webaim.org ».</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augmentez le contraste entre la couleur de premier plan (texte) et la couleur d'arrière-plan. Un texte de grande taille (supérieur à 18 points ou 14 points en gras) ne nécessite pas autant de contraste qu'un texte plus petit. A la ligne 781, je vous conseille de modifier la couleur du texte afin d’améliorer le contraste.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://webaim.org/standards/wcag/checklist#sc1.4.3</t>
   </si>
   <si>
     <t xml:space="preserve">Affichage du menu et du texte sur la page 2.</t>
@@ -390,7 +479,7 @@
     <t xml:space="preserve">Elles sont pénalisantes pour le visiteur qui ne trouve pas la page souhaitée et également auprès des moteurs de recherches qui classeront ce site comme non entretenu par son propriétaire.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vérifier les urls de retour et les modifier afin qu’elles fonctionnent. Je me suis permis de les retirer.</t>
+    <t xml:space="preserve">Vérifier les urls de retour et les modifier afin qu’elles fonctionnent. Je me suis permis de les retirer. En revenche, j’ai rectifié les liens vers les réseaux sociaux.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.abondance.com/20180424-19185-google-penalise-t-erreurs-404-video-seo.html</t>
@@ -406,18 +495,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.alsacreations.com/astuce/lire/1166-alt-title-images-liens.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il y a de nombreuses erreurs de contraste sur la page index et sur la page 2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un contraste de texte adéquat est nécessaire pour tous les utilisateurs, en particulier les utilisateurs malvoyants.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Augmentez le contraste entre la couleur de premier plan (texte) et la couleur d'arrière-plan. Un texte de grande taille (supérieur à 18 points ou 14 points en gras) ne nécessite pas autant de contraste qu'un texte plus petit. A la ligne 781, je vous conseille de remplacer la couleur par du blanc par exemple : #fff.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://webaim.org/standards/wcag/checklist#sc1.4.3</t>
   </si>
   <si>
     <t xml:space="preserve">Un contrôle de formulaire n'a pas d'étiquette correspondante.</t>
@@ -442,7 +519,7 @@
     <numFmt numFmtId="165" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
     <numFmt numFmtId="166" formatCode="&quot;BOOL&quot;yy&quot;AN&quot;"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -556,6 +633,20 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF2A6099"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <u val="single"/>
@@ -681,7 +772,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -754,14 +845,18 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -770,7 +865,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="23" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -778,7 +873,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -878,7 +973,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFF58220"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF2A6099"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF00A65D"/>
@@ -900,8 +995,8 @@
   </sheetPr>
   <dimension ref="A1:AK1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1186,14 +1281,14 @@
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="85.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="255.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -1203,7 +1298,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="19" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="12"/>
@@ -1307,7 +1402,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="20" t="s">
         <v>39</v>
       </c>
       <c r="G9" s="12"/>
@@ -1359,7 +1454,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="21" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="12"/>
@@ -1602,11 +1697,11 @@
       <c r="AJ14" s="12"/>
       <c r="AK14" s="12"/>
     </row>
-    <row r="15" s="23" customFormat="true" ht="85.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" s="24" customFormat="true" ht="85.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="22" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="16" t="s">
@@ -1615,17 +1710,17 @@
       <c r="D15" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="22" t="n">
+      <c r="E15" s="23" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="21"/>
+      <c r="I15" s="22"/>
     </row>
     <row r="16" customFormat="false" ht="85.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -1637,15 +1732,15 @@
       <c r="D16" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="22" t="n">
+      <c r="E16" s="23" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
@@ -1676,8 +1771,8 @@
       <c r="AJ16" s="12"/>
       <c r="AK16" s="12"/>
     </row>
-    <row r="17" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24" t="s">
+    <row r="17" customFormat="false" ht="85.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -1689,15 +1784,15 @@
       <c r="D17" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="22" t="n">
+      <c r="E17" s="23" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
@@ -1729,7 +1824,7 @@
       <c r="AK17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="85.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -1741,7 +1836,7 @@
       <c r="D18" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="25" t="n">
+      <c r="E18" s="26" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1781,7 +1876,7 @@
       <c r="AK18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="85.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -1793,7 +1888,7 @@
       <c r="D19" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="25" t="n">
+      <c r="E19" s="26" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1833,7 +1928,7 @@
       <c r="AK19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="85.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -1845,7 +1940,7 @@
       <c r="D20" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="25" t="n">
+      <c r="E20" s="26" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1885,7 +1980,7 @@
       <c r="AK20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="85.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -1897,7 +1992,7 @@
       <c r="D21" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="25" t="n">
+      <c r="E21" s="26" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1936,8 +2031,8 @@
       <c r="AJ21" s="12"/>
       <c r="AK21" s="12"/>
     </row>
-    <row r="22" customFormat="false" ht="85.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24" t="s">
+    <row r="22" customFormat="false" ht="131.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -1949,11 +2044,11 @@
       <c r="D22" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="25" t="n">
+      <c r="E22" s="26" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="20" t="s">
         <v>93</v>
       </c>
       <c r="G22" s="12"/>
@@ -1988,61 +2083,10 @@
       <c r="AJ22" s="12"/>
       <c r="AK22" s="12"/>
     </row>
-    <row r="23" customFormat="false" ht="131.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="25" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="12"/>
-      <c r="AI23" s="12"/>
-      <c r="AJ23" s="12"/>
-      <c r="AK23" s="12"/>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="E3:E23">
+  <conditionalFormatting sqref="E3:E22">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>1</formula>
     </cfRule>
@@ -2065,13 +2109,12 @@
     <hyperlink ref="F14" r:id="rId12" display="https://developer.mozilla.org/fr/docs/Web/CSS/@media/device-width"/>
     <hyperlink ref="F15" r:id="rId13" display="https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055281-creez-du-contenu-pour-chaque-langue"/>
     <hyperlink ref="F16" r:id="rId14" location="glossary" display="https://www.w3.org/Translations/WCAG20-fr/#glossary"/>
-    <hyperlink ref="F17" r:id="rId15" location="text_equivalents" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#text_equivalents"/>
+    <hyperlink ref="F17" r:id="rId15" location="sc1.4.3" display="https://webaim.org/standards/wcag/checklist#sc1.4.3"/>
     <hyperlink ref="F18" r:id="rId16" display="https://www.powertrafic.fr/texte-cache-seo/"/>
     <hyperlink ref="F19" r:id="rId17" location="navigation-mechanisms" display="https://www.w3.org/Translations/WCAG20-fr/#navigation-mechanisms"/>
     <hyperlink ref="F20" r:id="rId18" display="https://www.abondance.com/20180424-19185-google-penalise-t-erreurs-404-video-seo.html"/>
     <hyperlink ref="F21" r:id="rId19" display="https://www.alsacreations.com/astuce/lire/1166-alt-title-images-liens.html"/>
-    <hyperlink ref="F22" r:id="rId20" location="sc1.4.3" display="https://webaim.org/standards/wcag/checklist#sc1.4.3"/>
-    <hyperlink ref="F23" r:id="rId21" display="https://disic.github.io/guide-integrateur/6-formulaires.html"/>
+    <hyperlink ref="F22" r:id="rId20" display="https://disic.github.io/guide-integrateur/6-formulaires.html"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
